--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ngf-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ngf-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ngf</t>
   </si>
   <si>
     <t>Ngfr</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.7246536666666668</v>
+        <v>0.27169</v>
       </c>
       <c r="H2">
-        <v>2.173961</v>
+        <v>0.81507</v>
       </c>
       <c r="I2">
-        <v>0.1791272621505297</v>
+        <v>0.04814835840308388</v>
       </c>
       <c r="J2">
-        <v>0.1791272621505298</v>
+        <v>0.04814835840308387</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6946429999999998</v>
+        <v>0.6946430000000001</v>
       </c>
       <c r="N2">
-        <v>2.083928999999999</v>
+        <v>2.083929</v>
       </c>
       <c r="O2">
-        <v>0.1269399741689062</v>
+        <v>0.1140293552421611</v>
       </c>
       <c r="P2">
-        <v>0.1269399741689062</v>
+        <v>0.1140293552421611</v>
       </c>
       <c r="Q2">
-        <v>0.5033755969743332</v>
+        <v>0.18872755667</v>
       </c>
       <c r="R2">
-        <v>4.530380372769</v>
+        <v>1.69854801003</v>
       </c>
       <c r="S2">
-        <v>0.02273841003033512</v>
+        <v>0.005490326264672146</v>
       </c>
       <c r="T2">
-        <v>0.02273841003033513</v>
+        <v>0.005490326264672146</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7246536666666668</v>
+        <v>0.27169</v>
       </c>
       <c r="H3">
-        <v>2.173961</v>
+        <v>0.81507</v>
       </c>
       <c r="I3">
-        <v>0.1791272621505297</v>
+        <v>0.04814835840308388</v>
       </c>
       <c r="J3">
-        <v>0.1791272621505298</v>
+        <v>0.04814835840308387</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.727146666666667</v>
+        <v>5.373609333333333</v>
       </c>
       <c r="N3">
-        <v>14.18144</v>
+        <v>16.120828</v>
       </c>
       <c r="O3">
-        <v>0.8638449905336953</v>
+        <v>0.8821066470161785</v>
       </c>
       <c r="P3">
-        <v>0.8638449905336955</v>
+        <v>0.8821066470161785</v>
       </c>
       <c r="Q3">
-        <v>3.425544164871112</v>
+        <v>1.459955919773333</v>
       </c>
       <c r="R3">
-        <v>30.82989748384</v>
+        <v>13.13960327796</v>
       </c>
       <c r="S3">
-        <v>0.1547381880767511</v>
+        <v>0.04247198699027756</v>
       </c>
       <c r="T3">
-        <v>0.1547381880767512</v>
+        <v>0.04247198699027756</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7246536666666668</v>
+        <v>0.27169</v>
       </c>
       <c r="H4">
-        <v>2.173961</v>
+        <v>0.81507</v>
       </c>
       <c r="I4">
-        <v>0.1791272621505297</v>
+        <v>0.04814835840308388</v>
       </c>
       <c r="J4">
-        <v>0.1791272621505298</v>
+        <v>0.04814835840308387</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05042666666666667</v>
+        <v>0.02353866666666667</v>
       </c>
       <c r="N4">
-        <v>0.15128</v>
+        <v>0.070616</v>
       </c>
       <c r="O4">
-        <v>0.009215035297398391</v>
+        <v>0.00386399774166032</v>
       </c>
       <c r="P4">
-        <v>0.009215035297398391</v>
+        <v>0.00386399774166032</v>
       </c>
       <c r="Q4">
-        <v>0.03654186889777778</v>
+        <v>0.006395220346666666</v>
       </c>
       <c r="R4">
-        <v>0.32887682008</v>
+        <v>0.05755698312</v>
       </c>
       <c r="S4">
-        <v>0.001650664043443466</v>
+        <v>0.0001860451481341678</v>
       </c>
       <c r="T4">
-        <v>0.001650664043443467</v>
+        <v>0.0001860451481341678</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.320814666666667</v>
+        <v>0.7246536666666668</v>
       </c>
       <c r="H5">
-        <v>9.962444</v>
+        <v>2.173961</v>
       </c>
       <c r="I5">
-        <v>0.8208727378494701</v>
+        <v>0.1284216734542145</v>
       </c>
       <c r="J5">
-        <v>0.8208727378494702</v>
+        <v>0.1284216734542145</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6946429999999998</v>
+        <v>0.6946430000000001</v>
       </c>
       <c r="N5">
-        <v>2.083928999999999</v>
+        <v>2.083929</v>
       </c>
       <c r="O5">
-        <v>0.1269399741689062</v>
+        <v>0.1140293552421611</v>
       </c>
       <c r="P5">
-        <v>0.1269399741689062</v>
+        <v>0.1140293552421611</v>
       </c>
       <c r="Q5">
-        <v>2.306780662497333</v>
+        <v>0.5033755969743334</v>
       </c>
       <c r="R5">
-        <v>20.76102596247599</v>
+        <v>4.530380372769002</v>
       </c>
       <c r="S5">
-        <v>0.104201564138571</v>
+        <v>0.01464384062310344</v>
       </c>
       <c r="T5">
-        <v>0.104201564138571</v>
+        <v>0.01464384062310344</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,14 +770,14 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -782,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.320814666666667</v>
+        <v>0.7246536666666668</v>
       </c>
       <c r="H6">
-        <v>9.962444</v>
+        <v>2.173961</v>
       </c>
       <c r="I6">
-        <v>0.8208727378494701</v>
+        <v>0.1284216734542145</v>
       </c>
       <c r="J6">
-        <v>0.8208727378494702</v>
+        <v>0.1284216734542145</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.727146666666667</v>
+        <v>5.373609333333333</v>
       </c>
       <c r="N6">
-        <v>14.18144</v>
+        <v>16.120828</v>
       </c>
       <c r="O6">
-        <v>0.8638449905336953</v>
+        <v>0.8821066470161785</v>
       </c>
       <c r="P6">
-        <v>0.8638449905336955</v>
+        <v>0.8821066470161785</v>
       </c>
       <c r="Q6">
-        <v>15.69797798215111</v>
+        <v>3.894005706634223</v>
       </c>
       <c r="R6">
-        <v>141.28180183936</v>
+        <v>35.046051359708</v>
       </c>
       <c r="S6">
-        <v>0.7091068024569441</v>
+        <v>0.1132816117749038</v>
       </c>
       <c r="T6">
-        <v>0.7091068024569442</v>
+        <v>0.1132816117749038</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,14 +832,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -844,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.320814666666667</v>
+        <v>0.7246536666666668</v>
       </c>
       <c r="H7">
-        <v>9.962444</v>
+        <v>2.173961</v>
       </c>
       <c r="I7">
-        <v>0.8208727378494701</v>
+        <v>0.1284216734542145</v>
       </c>
       <c r="J7">
-        <v>0.8208727378494702</v>
+        <v>0.1284216734542145</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,28 +865,400 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.05042666666666667</v>
+        <v>0.02353866666666667</v>
       </c>
       <c r="N7">
-        <v>0.15128</v>
+        <v>0.070616</v>
       </c>
       <c r="O7">
-        <v>0.009215035297398391</v>
+        <v>0.00386399774166032</v>
       </c>
       <c r="P7">
-        <v>0.009215035297398391</v>
+        <v>0.00386399774166032</v>
       </c>
       <c r="Q7">
-        <v>0.1674576142577778</v>
+        <v>0.01705738110844444</v>
       </c>
       <c r="R7">
-        <v>1.50711852832</v>
+        <v>0.153516429976</v>
       </c>
       <c r="S7">
-        <v>0.007564371253954923</v>
+        <v>0.0004962210562073241</v>
       </c>
       <c r="T7">
-        <v>0.007564371253954924</v>
+        <v>0.0004962210562073241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.641773333333333</v>
+      </c>
+      <c r="H8">
+        <v>13.92532</v>
+      </c>
+      <c r="I8">
+        <v>0.8226057862976579</v>
+      </c>
+      <c r="J8">
+        <v>0.8226057862976578</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.6946430000000001</v>
+      </c>
+      <c r="N8">
+        <v>2.083929</v>
+      </c>
+      <c r="O8">
+        <v>0.1140293552421611</v>
+      </c>
+      <c r="P8">
+        <v>0.1140293552421611</v>
+      </c>
+      <c r="Q8">
+        <v>3.224375353586667</v>
+      </c>
+      <c r="R8">
+        <v>29.01937818228</v>
+      </c>
+      <c r="S8">
+        <v>0.09380120742999293</v>
+      </c>
+      <c r="T8">
+        <v>0.09380120742999291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.641773333333333</v>
+      </c>
+      <c r="H9">
+        <v>13.92532</v>
+      </c>
+      <c r="I9">
+        <v>0.8226057862976579</v>
+      </c>
+      <c r="J9">
+        <v>0.8226057862976578</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.373609333333333</v>
+      </c>
+      <c r="N9">
+        <v>16.120828</v>
+      </c>
+      <c r="O9">
+        <v>0.8821066470161785</v>
+      </c>
+      <c r="P9">
+        <v>0.8821066470161785</v>
+      </c>
+      <c r="Q9">
+        <v>24.94307650721778</v>
+      </c>
+      <c r="R9">
+        <v>224.48768856496</v>
+      </c>
+      <c r="S9">
+        <v>0.725626031967134</v>
+      </c>
+      <c r="T9">
+        <v>0.7256260319671339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.641773333333333</v>
+      </c>
+      <c r="H10">
+        <v>13.92532</v>
+      </c>
+      <c r="I10">
+        <v>0.8226057862976579</v>
+      </c>
+      <c r="J10">
+        <v>0.8226057862976578</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02353866666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.070616</v>
+      </c>
+      <c r="O10">
+        <v>0.00386399774166032</v>
+      </c>
+      <c r="P10">
+        <v>0.00386399774166032</v>
+      </c>
+      <c r="Q10">
+        <v>0.1092611552355555</v>
+      </c>
+      <c r="R10">
+        <v>0.9833503971199999</v>
+      </c>
+      <c r="S10">
+        <v>0.003178546900530862</v>
+      </c>
+      <c r="T10">
+        <v>0.003178546900530862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.004650666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.013952</v>
+      </c>
+      <c r="I11">
+        <v>0.0008241818450437709</v>
+      </c>
+      <c r="J11">
+        <v>0.0008241818450437709</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.6946430000000001</v>
+      </c>
+      <c r="N11">
+        <v>2.083929</v>
+      </c>
+      <c r="O11">
+        <v>0.1140293552421611</v>
+      </c>
+      <c r="P11">
+        <v>0.1140293552421611</v>
+      </c>
+      <c r="Q11">
+        <v>0.003230553045333334</v>
+      </c>
+      <c r="R11">
+        <v>0.02907497740800001</v>
+      </c>
+      <c r="S11">
+        <v>9.398092439263596E-05</v>
+      </c>
+      <c r="T11">
+        <v>9.398092439263596E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.004650666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.013952</v>
+      </c>
+      <c r="I12">
+        <v>0.0008241818450437709</v>
+      </c>
+      <c r="J12">
+        <v>0.0008241818450437709</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.373609333333333</v>
+      </c>
+      <c r="N12">
+        <v>16.120828</v>
+      </c>
+      <c r="O12">
+        <v>0.8821066470161785</v>
+      </c>
+      <c r="P12">
+        <v>0.8821066470161785</v>
+      </c>
+      <c r="Q12">
+        <v>0.02499086580622222</v>
+      </c>
+      <c r="R12">
+        <v>0.224917792256</v>
+      </c>
+      <c r="S12">
+        <v>0.0007270162838631682</v>
+      </c>
+      <c r="T12">
+        <v>0.0007270162838631682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.004650666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.013952</v>
+      </c>
+      <c r="I13">
+        <v>0.0008241818450437709</v>
+      </c>
+      <c r="J13">
+        <v>0.0008241818450437709</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.02353866666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.070616</v>
+      </c>
+      <c r="O13">
+        <v>0.00386399774166032</v>
+      </c>
+      <c r="P13">
+        <v>0.00386399774166032</v>
+      </c>
+      <c r="Q13">
+        <v>0.0001094704924444444</v>
+      </c>
+      <c r="R13">
+        <v>0.000985234432</v>
+      </c>
+      <c r="S13">
+        <v>3.184636787966566E-06</v>
+      </c>
+      <c r="T13">
+        <v>3.184636787966566E-06</v>
       </c>
     </row>
   </sheetData>
